--- a/instructions_spreadsheets/hic_instructions.xlsx
+++ b/instructions_spreadsheets/hic_instructions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/richardzhang/Desktop/OneDrive/Desktop/Thesis_Project/RegSCOUT_github_update/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kunfundere\Downloads\instructions_spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34524189-3329-6A4C-8F04-95048C5D07F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2ADAB4-1F9D-49B0-BE4F-57B370ED726F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17840" xr2:uid="{43A4895C-B8A2-9E46-A44B-7480B88791E4}"/>
+    <workbookView xWindow="52695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{43A4895C-B8A2-9E46-A44B-7480B88791E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>hic_dir</t>
   </si>
@@ -59,9 +59,6 @@
     <t>tCD8,tCD4,tCD8,tB</t>
   </si>
   <si>
-    <t>/Users/richardzhang/Desktop/OneDrive/Desktop/Thesis_Project/RegSCOUT_github_update/hic_test_data/PCHiC_peak_matrix_cutoff5.txt</t>
-  </si>
-  <si>
     <t>atac_cell_types</t>
   </si>
   <si>
@@ -71,28 +68,13 @@
     <t>adaptive_NK,cyto_nk</t>
   </si>
   <si>
-    <t>/Users/richardzhang/Desktop/OneDrive/Desktop/Thesis_Project/RegSCOUT_github_update/hic_test_data/hg19_nk_intHiC.txt</t>
-  </si>
-  <si>
-    <t>/Users/richardzhang/Desktop/OneDrive/Desktop/Thesis_Project/RegSCOUT_github_update/hic_test_data/tCD8_peak_matrix_cutoff5.txt</t>
-  </si>
-  <si>
-    <t>naive_cd8_t,cyto_cd8_t</t>
-  </si>
-  <si>
-    <t>/Users/richardzhang/Desktop/OneDrive/Desktop/Thesis_Project/RegSCOUT_github_update/hic_test_data/bulk_peak_matrix_cutoff5.txt</t>
-  </si>
-  <si>
-    <t>naive_cd8_t,naive_cd4_t,cyto_cd8_t</t>
-  </si>
-  <si>
-    <t>tCD8,tCD4,tCD8</t>
-  </si>
-  <si>
-    <t>/Users/richardzhang/Desktop/OneDrive/Desktop/Thesis_Project/RegSCOUT_github_update/hic_test_data/hg19_nk_intHiC_scExample.txt</t>
-  </si>
-  <si>
     <t>signif_threshold</t>
+  </si>
+  <si>
+    <t>/home/ubunkun/Lab/RA_project/RegSCOUT/inputs/hic_files/NK_intHIC.bedpe</t>
+  </si>
+  <si>
+    <t>/home/ubunkun/Lab/RA_project/RegSCOUT/inputs/hic_files/PCHiC_peak_matrix_cutoff5.tsv</t>
   </si>
 </sst>
 </file>
@@ -464,22 +446,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC02079-256E-A745-9E55-2F1C2D91AF4C}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="113.33203125" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" customWidth="1"/>
+    <col min="1" max="1" width="113.296875" customWidth="1"/>
+    <col min="2" max="2" width="16.796875" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
     <col min="5" max="5" width="27" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -490,16 +472,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
       <c r="F1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -510,12 +492,12 @@
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -531,54 +513,6 @@
       </c>
       <c r="F3">
         <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="b">
-        <v>0</v>
-      </c>
-      <c r="D6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6">
-        <v>0.05</v>
       </c>
     </row>
   </sheetData>
